--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1527,28 +1527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.7591433985634</v>
+        <v>275.82166941292</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.9003433465942</v>
+        <v>377.3913764840107</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.3821351395665</v>
+        <v>341.3736731844995</v>
       </c>
       <c r="AD2" t="n">
-        <v>187759.1433985634</v>
+        <v>275821.66941292</v>
       </c>
       <c r="AE2" t="n">
-        <v>256900.3433465942</v>
+        <v>377391.3764840107</v>
       </c>
       <c r="AF2" t="n">
         <v>9.403673593577112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.69270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>232382.1351395666</v>
+        <v>341373.6731844995</v>
       </c>
     </row>
     <row r="3">
@@ -1633,28 +1633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.774977494697</v>
+        <v>253.0831476574828</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.1348347359611</v>
+        <v>346.279527865277</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.3121417366787</v>
+        <v>313.231095732288</v>
       </c>
       <c r="AD3" t="n">
-        <v>174774.977494697</v>
+        <v>253083.1476574828</v>
       </c>
       <c r="AE3" t="n">
-        <v>239134.8347359611</v>
+        <v>346279.527865277</v>
       </c>
       <c r="AF3" t="n">
         <v>1.010575332139076e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.52083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>216312.1417366787</v>
+        <v>313231.095732288</v>
       </c>
     </row>
   </sheetData>
@@ -1930,28 +1930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.9497172660623</v>
+        <v>249.292625240441</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.2691890494605</v>
+        <v>341.0931678682362</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.8154278490287</v>
+        <v>308.5397146542612</v>
       </c>
       <c r="AD2" t="n">
-        <v>171949.7172660623</v>
+        <v>249292.625240441</v>
       </c>
       <c r="AE2" t="n">
-        <v>235269.1890494605</v>
+        <v>341093.1678682362</v>
       </c>
       <c r="AF2" t="n">
         <v>1.110464000601772e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.46875</v>
       </c>
       <c r="AH2" t="n">
-        <v>212815.4278490287</v>
+        <v>308539.7146542612</v>
       </c>
     </row>
     <row r="3">
@@ -2036,28 +2036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.7087095914218</v>
+        <v>249.0516175658005</v>
       </c>
       <c r="AB3" t="n">
-        <v>234.9394317165093</v>
+        <v>340.763410535285</v>
       </c>
       <c r="AC3" t="n">
-        <v>212.5171420931169</v>
+        <v>308.2414288983495</v>
       </c>
       <c r="AD3" t="n">
-        <v>171708.7095914218</v>
+        <v>249051.6175658005</v>
       </c>
       <c r="AE3" t="n">
-        <v>234939.4317165093</v>
+        <v>340763.410535285</v>
       </c>
       <c r="AF3" t="n">
         <v>1.121582489259142e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>212517.1420931169</v>
+        <v>308241.4288983495</v>
       </c>
     </row>
   </sheetData>
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.5399469408597</v>
+        <v>248.6709517608356</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.1308143945277</v>
+        <v>340.2425667871423</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.6446454418613</v>
+        <v>307.7702937465205</v>
       </c>
       <c r="AD2" t="n">
-        <v>164539.9469408597</v>
+        <v>248670.9517608356</v>
       </c>
       <c r="AE2" t="n">
-        <v>225130.8143945277</v>
+        <v>340242.5667871423</v>
       </c>
       <c r="AF2" t="n">
         <v>1.499875420726098e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.98958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>203644.6454418613</v>
+        <v>307770.2937465205</v>
       </c>
     </row>
   </sheetData>
@@ -2630,28 +2630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.9101989568896</v>
+        <v>242.6692747582344</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.3738977709971</v>
+        <v>332.030807536885</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.5782134925775</v>
+        <v>300.3422532738286</v>
       </c>
       <c r="AD2" t="n">
-        <v>166910.1989568896</v>
+        <v>242669.2747582344</v>
       </c>
       <c r="AE2" t="n">
-        <v>228373.8977709971</v>
+        <v>332030.807536885</v>
       </c>
       <c r="AF2" t="n">
         <v>1.348065283015755e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>206578.2134925775</v>
+        <v>300342.2532738287</v>
       </c>
     </row>
   </sheetData>
@@ -2927,28 +2927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.8488019065486</v>
+        <v>255.8255930470414</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.8135533713595</v>
+        <v>350.0318626354208</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.0671370496846</v>
+        <v>316.6253129384056</v>
       </c>
       <c r="AD2" t="n">
-        <v>181848.8019065486</v>
+        <v>255825.5930470414</v>
       </c>
       <c r="AE2" t="n">
-        <v>248813.5533713595</v>
+        <v>350031.8626354208</v>
       </c>
       <c r="AF2" t="n">
         <v>1.612782003477227e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>225067.1370496847</v>
+        <v>316625.3129384056</v>
       </c>
     </row>
   </sheetData>
@@ -3224,28 +3224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.6005670495293</v>
+        <v>250.1705114136572</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.1597104366656</v>
+        <v>342.2943304600345</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.6209591248938</v>
+        <v>309.626239974141</v>
       </c>
       <c r="AD2" t="n">
-        <v>172600.5670495293</v>
+        <v>250170.5114136572</v>
       </c>
       <c r="AE2" t="n">
-        <v>236159.7104366656</v>
+        <v>342294.3304600345</v>
       </c>
       <c r="AF2" t="n">
         <v>1.085259708141873e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.44270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>213620.9591248938</v>
+        <v>309626.2399741409</v>
       </c>
     </row>
     <row r="3">
@@ -3330,28 +3330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>172.6541839087481</v>
+        <v>250.224128272876</v>
       </c>
       <c r="AB3" t="n">
-        <v>236.2330713888575</v>
+        <v>342.3676914122265</v>
       </c>
       <c r="AC3" t="n">
-        <v>213.6873186107713</v>
+        <v>309.6925994600185</v>
       </c>
       <c r="AD3" t="n">
-        <v>172654.1839087481</v>
+        <v>250224.128272876</v>
       </c>
       <c r="AE3" t="n">
-        <v>236233.0713888575</v>
+        <v>342367.6914122265</v>
       </c>
       <c r="AF3" t="n">
         <v>1.086784871214118e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.41666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>213687.3186107713</v>
+        <v>309692.5994600185</v>
       </c>
     </row>
   </sheetData>
@@ -3627,28 +3627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.2056846280372</v>
+        <v>273.0325374217627</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.9336119385686</v>
+        <v>373.5751630458901</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.2711759922335</v>
+        <v>337.9216738008238</v>
       </c>
       <c r="AD2" t="n">
-        <v>181205.6846280372</v>
+        <v>273032.5374217627</v>
       </c>
       <c r="AE2" t="n">
-        <v>247933.6119385686</v>
+        <v>373575.1630458901</v>
       </c>
       <c r="AF2" t="n">
         <v>1.668265936163439e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.99479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>224271.1759922335</v>
+        <v>337921.6738008239</v>
       </c>
     </row>
   </sheetData>
@@ -3924,28 +3924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.3387669113598</v>
+        <v>245.9448319536179</v>
       </c>
       <c r="AB2" t="n">
-        <v>231.6967715871581</v>
+        <v>336.5125693989912</v>
       </c>
       <c r="AC2" t="n">
-        <v>209.5839568954079</v>
+        <v>304.3962820740091</v>
       </c>
       <c r="AD2" t="n">
-        <v>169338.7669113598</v>
+        <v>245944.8319536179</v>
       </c>
       <c r="AE2" t="n">
-        <v>231696.7715871581</v>
+        <v>336512.5693989912</v>
       </c>
       <c r="AF2" t="n">
         <v>1.22193312260394e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.28645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>209583.9568954079</v>
+        <v>304396.2820740091</v>
       </c>
     </row>
   </sheetData>
@@ -4221,28 +4221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.0421796451724</v>
+        <v>248.1494178861257</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.0274560388254</v>
+        <v>339.5289811313138</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.692204094145</v>
+        <v>307.1248117041603</v>
       </c>
       <c r="AD2" t="n">
-        <v>171042.1796451724</v>
+        <v>248149.4178861257</v>
       </c>
       <c r="AE2" t="n">
-        <v>234027.4560388254</v>
+        <v>339528.9811313138</v>
       </c>
       <c r="AF2" t="n">
         <v>1.146182129582973e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>211692.204094145</v>
+        <v>307124.8117041603</v>
       </c>
     </row>
   </sheetData>
@@ -4518,28 +4518,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.9643574580862</v>
+        <v>263.9997174645536</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.444638042467</v>
+        <v>361.2160602805447</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.1607989030605</v>
+        <v>326.7421064572935</v>
       </c>
       <c r="AD2" t="n">
-        <v>185964.3574580862</v>
+        <v>263999.7174645535</v>
       </c>
       <c r="AE2" t="n">
-        <v>254444.638042467</v>
+        <v>361216.0602805447</v>
       </c>
       <c r="AF2" t="n">
         <v>9.828968153627156e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.30208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>230160.7989030605</v>
+        <v>326742.1064572934</v>
       </c>
     </row>
     <row r="3">
@@ -4624,28 +4624,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.2690761756443</v>
+        <v>251.2702707633276</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.0743941155568</v>
+        <v>343.7990697202112</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.4483466772385</v>
+        <v>310.9873690312416</v>
       </c>
       <c r="AD3" t="n">
-        <v>173269.0761756443</v>
+        <v>251270.2707633276</v>
       </c>
       <c r="AE3" t="n">
-        <v>237074.3941155568</v>
+        <v>343799.0697202111</v>
       </c>
       <c r="AF3" t="n">
         <v>1.050437745489897e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.26041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>214448.3466772385</v>
+        <v>310987.3690312416</v>
       </c>
     </row>
   </sheetData>
@@ -4921,28 +4921,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.6231681594876</v>
+        <v>243.6796188466498</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.3494136879725</v>
+        <v>333.4132048918897</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.4606275395823</v>
+        <v>301.592716565479</v>
       </c>
       <c r="AD2" t="n">
-        <v>167623.1681594876</v>
+        <v>243679.6188466499</v>
       </c>
       <c r="AE2" t="n">
-        <v>229349.4136879726</v>
+        <v>333413.2048918897</v>
       </c>
       <c r="AF2" t="n">
         <v>1.306925660654759e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.28645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>207460.6275395823</v>
+        <v>301592.7165654789</v>
       </c>
     </row>
   </sheetData>
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.3393300017397</v>
+        <v>240.5467969509132</v>
       </c>
       <c r="AB2" t="n">
-        <v>226.224565564715</v>
+        <v>329.1267397637973</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.6340105354556</v>
+        <v>297.7153456531188</v>
       </c>
       <c r="AD2" t="n">
-        <v>165339.3300017397</v>
+        <v>240546.7969509132</v>
       </c>
       <c r="AE2" t="n">
-        <v>226224.565564715</v>
+        <v>329126.7397637973</v>
       </c>
       <c r="AF2" t="n">
         <v>1.445830477066405e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>204634.0105354556</v>
+        <v>297715.3456531188</v>
       </c>
     </row>
   </sheetData>
@@ -8240,28 +8240,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.1104752749176</v>
+        <v>247.4908948084306</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.8573893662047</v>
+        <v>338.627960804424</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.2520525565965</v>
+        <v>306.3097834926787</v>
       </c>
       <c r="AD2" t="n">
-        <v>173110.4752749176</v>
+        <v>247490.8948084306</v>
       </c>
       <c r="AE2" t="n">
-        <v>236857.3893662047</v>
+        <v>338627.9608044241</v>
       </c>
       <c r="AF2" t="n">
         <v>1.561393211255253e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>214252.0525565965</v>
+        <v>306309.7834926787</v>
       </c>
     </row>
   </sheetData>
@@ -8537,28 +8537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.4372796760625</v>
+        <v>299.6638188125818</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.8788846044718</v>
+        <v>410.0132571340241</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.8357068458209</v>
+        <v>370.8821673303727</v>
       </c>
       <c r="AD2" t="n">
-        <v>199437.2796760625</v>
+        <v>299663.8188125818</v>
       </c>
       <c r="AE2" t="n">
-        <v>272878.8846044718</v>
+        <v>410013.2571340241</v>
       </c>
       <c r="AF2" t="n">
         <v>1.697346456105368e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.86979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>246835.7068458209</v>
+        <v>370882.1673303727</v>
       </c>
     </row>
   </sheetData>
@@ -8834,28 +8834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.9669832262634</v>
+        <v>246.8289795375147</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.5563248641566</v>
+        <v>337.7222991291165</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.3614756140405</v>
+        <v>305.490556896558</v>
       </c>
       <c r="AD2" t="n">
-        <v>169966.9832262634</v>
+        <v>246828.9795375147</v>
       </c>
       <c r="AE2" t="n">
-        <v>232556.3248641566</v>
+        <v>337722.2991291165</v>
       </c>
       <c r="AF2" t="n">
         <v>1.190512140831577e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>210361.4756140405</v>
+        <v>305490.556896558</v>
       </c>
     </row>
   </sheetData>
@@ -9131,28 +9131,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.1487593583378</v>
+        <v>252.0393897020161</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.2780154550005</v>
+        <v>344.8514121832571</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.5370960853392</v>
+        <v>311.9392774065868</v>
       </c>
       <c r="AD2" t="n">
-        <v>174148.7593583378</v>
+        <v>252039.3897020161</v>
       </c>
       <c r="AE2" t="n">
-        <v>238278.0154550005</v>
+        <v>344851.4121832571</v>
       </c>
       <c r="AF2" t="n">
         <v>1.037960793918786e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.78125</v>
       </c>
       <c r="AH2" t="n">
-        <v>215537.0960853392</v>
+        <v>311939.2774065867</v>
       </c>
     </row>
     <row r="3">
@@ -9237,28 +9237,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.3175645710989</v>
+        <v>251.106709688292</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.1407380773747</v>
+        <v>343.5752782415422</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.5083588644549</v>
+        <v>310.7849358972035</v>
       </c>
       <c r="AD3" t="n">
-        <v>173317.5645710989</v>
+        <v>251106.709688292</v>
       </c>
       <c r="AE3" t="n">
-        <v>237140.7380773748</v>
+        <v>343575.2782415422</v>
       </c>
       <c r="AF3" t="n">
         <v>1.060920521393415e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.44270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>214508.358864455</v>
+        <v>310784.9358972035</v>
       </c>
     </row>
   </sheetData>
@@ -9534,28 +9534,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.0965967852476</v>
+        <v>354.385309270392</v>
       </c>
       <c r="AB2" t="n">
-        <v>336.7202207370185</v>
+        <v>484.8856145201773</v>
       </c>
       <c r="AC2" t="n">
-        <v>304.5841154597757</v>
+        <v>438.6088120116051</v>
       </c>
       <c r="AD2" t="n">
-        <v>246096.5967852476</v>
+        <v>354385.309270392</v>
       </c>
       <c r="AE2" t="n">
-        <v>336720.2207370184</v>
+        <v>484885.6145201774</v>
       </c>
       <c r="AF2" t="n">
         <v>1.635781902340587e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>304584.1154597757</v>
+        <v>438608.8120116051</v>
       </c>
     </row>
   </sheetData>
@@ -9831,28 +9831,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.1689466268124</v>
+        <v>241.7138095109276</v>
       </c>
       <c r="AB2" t="n">
-        <v>227.3596836312412</v>
+        <v>330.7234978333687</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.6607945268611</v>
+        <v>299.1597113735948</v>
       </c>
       <c r="AD2" t="n">
-        <v>166168.9466268124</v>
+        <v>241713.8095109276</v>
       </c>
       <c r="AE2" t="n">
-        <v>227359.6836312412</v>
+        <v>330723.4978333687</v>
       </c>
       <c r="AF2" t="n">
         <v>1.393175885904558e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>205660.7945268611</v>
+        <v>299159.7113735948</v>
       </c>
     </row>
   </sheetData>
@@ -10128,28 +10128,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.515114809343</v>
+        <v>244.8532131758342</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.5698144442131</v>
+        <v>335.0189684284067</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.5645549604909</v>
+        <v>303.0452282837746</v>
       </c>
       <c r="AD2" t="n">
-        <v>168515.114809343</v>
+        <v>244853.2131758342</v>
       </c>
       <c r="AE2" t="n">
-        <v>230569.8144442131</v>
+        <v>335018.9684284066</v>
       </c>
       <c r="AF2" t="n">
         <v>1.261192191101327e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.28645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>208564.5549604909</v>
+        <v>303045.2282837746</v>
       </c>
     </row>
   </sheetData>
